--- a/Data/disease_tree_name.xlsx
+++ b/Data/disease_tree_name.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/l_wei_2_research_gla_ac_uk/Documents/TT repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/l_wei_2_research_gla_ac_uk/Documents/subgroup_reporting/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_F25DC773A252ABDACC1048A161187C8E5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97D792BD-6229-42A0-B09C-793FD8AD865A}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABDACC1048A161187C8E5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AC8F152-2E9B-463D-AED3-BCF4E0C962DD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="34950" yWindow="2685" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,205 +488,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
